--- a/reports/calibrations/models_summary-Return-VIX-LogDiff.xlsx
+++ b/reports/calibrations/models_summary-Return-VIX-LogDiff.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorgi.POSTEVITA\Documents\ML\dynamic-trading\reports\calibrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD4DBE9-2B71-4A63-B0A8-E3C7C83ED90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7B42F0-3E11-4C60-A1F6-C7907B8265E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="PIVOT" sheetId="2" r:id="rId1"/>
     <sheet name="models_summary" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -257,81 +257,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3035,7 +2972,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31F67CC4-439F-496B-8D15-ECE6D126C555}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31F67CC4-439F-496B-8D15-ECE6D126C555}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F5:H21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
@@ -3165,7 +3102,7 @@
     <dataField name="Sum of nobs" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3182,7 +3119,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5BDA284-5027-48BF-85C2-EBC0941FF415}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5BDA284-5027-48BF-85C2-EBC0941FF415}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:C21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
@@ -3310,7 +3247,7 @@
     <dataField name="Sum of rsquared" fld="14" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="19">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
